--- a/data/pca/factorExposure/factorExposure_2009-09-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01730927801577782</v>
+        <v>0.01695617065793466</v>
       </c>
       <c r="C2">
-        <v>0.001621043708023462</v>
+        <v>-0.000940163896137346</v>
       </c>
       <c r="D2">
-        <v>0.0008741857637176968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008593526748183195</v>
+      </c>
+      <c r="E2">
+        <v>0.001672560011466395</v>
+      </c>
+      <c r="F2">
+        <v>-0.01241371141063843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09928214683568685</v>
+        <v>0.0938859844060007</v>
       </c>
       <c r="C4">
-        <v>0.02093447847770823</v>
+        <v>-0.01446011029864192</v>
       </c>
       <c r="D4">
-        <v>-0.06940797138967035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08392211798235966</v>
+      </c>
+      <c r="E4">
+        <v>0.02879984269530853</v>
+      </c>
+      <c r="F4">
+        <v>0.03228805728381099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1405952931787462</v>
+        <v>0.1586935870625566</v>
       </c>
       <c r="C6">
-        <v>0.02569527990420084</v>
+        <v>-0.02640634900372817</v>
       </c>
       <c r="D6">
-        <v>0.02097638937521493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02314261678487294</v>
+      </c>
+      <c r="E6">
+        <v>0.01008004172626023</v>
+      </c>
+      <c r="F6">
+        <v>0.04379855672957902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06673933972242706</v>
+        <v>0.06351905291343289</v>
       </c>
       <c r="C7">
-        <v>0.003380516477457089</v>
+        <v>0.001712063620058503</v>
       </c>
       <c r="D7">
-        <v>-0.03735800720435765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05238637034391191</v>
+      </c>
+      <c r="E7">
+        <v>0.01181826241077088</v>
+      </c>
+      <c r="F7">
+        <v>0.04762048205746303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06405991158889389</v>
+        <v>0.05744571740593468</v>
       </c>
       <c r="C8">
-        <v>-0.01024047679401589</v>
+        <v>0.0133582514530277</v>
       </c>
       <c r="D8">
-        <v>-0.01746496298421219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03256744948370974</v>
+      </c>
+      <c r="E8">
+        <v>0.01780323668789287</v>
+      </c>
+      <c r="F8">
+        <v>-0.02688555779716603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07651160319131142</v>
+        <v>0.07081300067172955</v>
       </c>
       <c r="C9">
-        <v>0.01779994497034016</v>
+        <v>-0.01020117295633651</v>
       </c>
       <c r="D9">
-        <v>-0.06730162825313171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08693354154580865</v>
+      </c>
+      <c r="E9">
+        <v>0.02318815474148673</v>
+      </c>
+      <c r="F9">
+        <v>0.04790789062276818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.087549240630957</v>
+        <v>0.09200486107993711</v>
       </c>
       <c r="C10">
-        <v>0.008301348198552255</v>
+        <v>-0.02107411278051469</v>
       </c>
       <c r="D10">
-        <v>0.1695227102769423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1647022227276447</v>
+      </c>
+      <c r="E10">
+        <v>-0.03249483262975844</v>
+      </c>
+      <c r="F10">
+        <v>-0.05510426939325095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09292991168142888</v>
+        <v>0.08800487448834531</v>
       </c>
       <c r="C11">
-        <v>0.01812546551787234</v>
+        <v>-0.01023501651816654</v>
       </c>
       <c r="D11">
-        <v>-0.09860972730431218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169776838793465</v>
+      </c>
+      <c r="E11">
+        <v>0.04582584129133502</v>
+      </c>
+      <c r="F11">
+        <v>0.02308943484697193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09929307487484025</v>
+        <v>0.09216164727029516</v>
       </c>
       <c r="C12">
-        <v>0.0166128082689016</v>
+        <v>-0.007638611146984811</v>
       </c>
       <c r="D12">
-        <v>-0.09696458901740185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320744084522734</v>
+      </c>
+      <c r="E12">
+        <v>0.04625488284187558</v>
+      </c>
+      <c r="F12">
+        <v>0.02919893367295025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04146162258105494</v>
+        <v>0.04151033537778283</v>
       </c>
       <c r="C13">
-        <v>0.006339454888844567</v>
+        <v>-0.002340726227098609</v>
       </c>
       <c r="D13">
-        <v>-0.03534933641906121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0542168765986329</v>
+      </c>
+      <c r="E13">
+        <v>-0.004468621422118231</v>
+      </c>
+      <c r="F13">
+        <v>0.002187294369304156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0206922769841523</v>
+        <v>0.02411145367505298</v>
       </c>
       <c r="C14">
-        <v>0.01558917016797269</v>
+        <v>-0.01381809444072812</v>
       </c>
       <c r="D14">
-        <v>-0.02172013013356748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03277107403142335</v>
+      </c>
+      <c r="E14">
+        <v>0.01859821620291534</v>
+      </c>
+      <c r="F14">
+        <v>0.01372399685116402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03568946284437508</v>
+        <v>0.03276425339437056</v>
       </c>
       <c r="C15">
-        <v>0.008097370064758721</v>
+        <v>-0.004565559352405802</v>
       </c>
       <c r="D15">
-        <v>-0.02444919380306777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04491868858617497</v>
+      </c>
+      <c r="E15">
+        <v>0.005922172411835344</v>
+      </c>
+      <c r="F15">
+        <v>0.02481007925630083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0780823481951083</v>
+        <v>0.07416260094806701</v>
       </c>
       <c r="C16">
-        <v>0.00970082398996089</v>
+        <v>-0.0008141690721732181</v>
       </c>
       <c r="D16">
-        <v>-0.09696616050065457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276311076262814</v>
+      </c>
+      <c r="E16">
+        <v>0.06064650662989199</v>
+      </c>
+      <c r="F16">
+        <v>0.02701763401732638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006781408382393216</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.00016479147947825</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00111908380055616</v>
+      </c>
+      <c r="E17">
+        <v>0.0006639854396507928</v>
+      </c>
+      <c r="F17">
+        <v>-0.001182027980239109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.003682877603341659</v>
+        <v>0.03629506248783513</v>
       </c>
       <c r="C18">
-        <v>-0.0009508983535207354</v>
+        <v>0.003008222716412164</v>
       </c>
       <c r="D18">
-        <v>-0.003231368605771931</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01611159163940383</v>
+      </c>
+      <c r="E18">
+        <v>-0.008874519075077641</v>
+      </c>
+      <c r="F18">
+        <v>-0.009180266321911617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06048728482575012</v>
+        <v>0.06176607652470052</v>
       </c>
       <c r="C20">
-        <v>0.007448654029481971</v>
+        <v>8.75071735562819e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04340885239964518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07826248911051485</v>
+      </c>
+      <c r="E20">
+        <v>0.05634576947048326</v>
+      </c>
+      <c r="F20">
+        <v>0.02616517388003226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04471665341039833</v>
+        <v>0.04067002316383896</v>
       </c>
       <c r="C21">
-        <v>0.01041761465140674</v>
+        <v>-0.006402728444279405</v>
       </c>
       <c r="D21">
-        <v>-0.01445864357976421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03803433224947432</v>
+      </c>
+      <c r="E21">
+        <v>-0.001788760908423668</v>
+      </c>
+      <c r="F21">
+        <v>-0.02436549309538644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03816669200959664</v>
+        <v>0.04317967970786527</v>
       </c>
       <c r="C22">
-        <v>0.0004320049074410958</v>
+        <v>-0.0003753416760912505</v>
       </c>
       <c r="D22">
-        <v>0.01562893432200493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006955980194677372</v>
+      </c>
+      <c r="E22">
+        <v>0.03538331725698645</v>
+      </c>
+      <c r="F22">
+        <v>-0.0365138290972564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0381265441243228</v>
+        <v>0.04315547712904262</v>
       </c>
       <c r="C23">
-        <v>0.0004233824397470307</v>
+        <v>-0.0003669027186930652</v>
       </c>
       <c r="D23">
-        <v>0.01560932758175271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006971488748143863</v>
+      </c>
+      <c r="E23">
+        <v>0.03556591021889275</v>
+      </c>
+      <c r="F23">
+        <v>-0.03647564607635766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08362865630142959</v>
+        <v>0.07971508431684424</v>
       </c>
       <c r="C24">
-        <v>0.009826594542882152</v>
+        <v>-0.001410114141187184</v>
       </c>
       <c r="D24">
-        <v>-0.1055828979922573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1214969285863183</v>
+      </c>
+      <c r="E24">
+        <v>0.04868786579755676</v>
+      </c>
+      <c r="F24">
+        <v>0.02739901093227001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0913467214492633</v>
+        <v>0.08526377402050049</v>
       </c>
       <c r="C25">
-        <v>0.01187039935899873</v>
+        <v>-0.004213165549791256</v>
       </c>
       <c r="D25">
-        <v>-0.09050652634356669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096590226078977</v>
+      </c>
+      <c r="E25">
+        <v>0.03210487733120884</v>
+      </c>
+      <c r="F25">
+        <v>0.02740180660266998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05902719707414547</v>
+        <v>0.05892005959474274</v>
       </c>
       <c r="C26">
-        <v>0.01824457890234363</v>
+        <v>-0.01428938472242231</v>
       </c>
       <c r="D26">
-        <v>-0.01361158716337346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04089590904807833</v>
+      </c>
+      <c r="E26">
+        <v>0.02849585760052899</v>
+      </c>
+      <c r="F26">
+        <v>-0.006976033374161351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1379887738847461</v>
+        <v>0.142522848124086</v>
       </c>
       <c r="C28">
-        <v>0.003960776879036241</v>
+        <v>-0.02234283641237274</v>
       </c>
       <c r="D28">
-        <v>0.273403671087032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2610510194064035</v>
+      </c>
+      <c r="E28">
+        <v>-0.06686209367476913</v>
+      </c>
+      <c r="F28">
+        <v>0.007388566848711173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02627180781480272</v>
+        <v>0.02869838511770569</v>
       </c>
       <c r="C29">
-        <v>0.0102172135999512</v>
+        <v>-0.008685817099493121</v>
       </c>
       <c r="D29">
-        <v>-0.0176185189101027</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0312024365238239</v>
+      </c>
+      <c r="E29">
+        <v>0.01389608424371412</v>
+      </c>
+      <c r="F29">
+        <v>-0.01316787364961277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07012153958733242</v>
+        <v>0.05859272957725112</v>
       </c>
       <c r="C30">
-        <v>0.01000168728552814</v>
+        <v>-0.00241974523688688</v>
       </c>
       <c r="D30">
-        <v>-0.07438274077457645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08934235525579667</v>
+      </c>
+      <c r="E30">
+        <v>0.01513006435708134</v>
+      </c>
+      <c r="F30">
+        <v>0.07798886494062711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05134854271903397</v>
+        <v>0.05103537986113352</v>
       </c>
       <c r="C31">
-        <v>0.01672796860302414</v>
+        <v>-0.01537116440072866</v>
       </c>
       <c r="D31">
-        <v>-0.02190023410163242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02524550316050158</v>
+      </c>
+      <c r="E31">
+        <v>0.02879062266563942</v>
+      </c>
+      <c r="F31">
+        <v>-0.001223492169261481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04537582871134105</v>
+        <v>0.05104978493551177</v>
       </c>
       <c r="C32">
-        <v>0.001808468547943989</v>
+        <v>0.002042537217199059</v>
       </c>
       <c r="D32">
-        <v>-0.02221706971257146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03668267033876195</v>
+      </c>
+      <c r="E32">
+        <v>0.03412029675976946</v>
+      </c>
+      <c r="F32">
+        <v>0.003525766681107077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09657747280457366</v>
+        <v>0.08898184905856785</v>
       </c>
       <c r="C33">
-        <v>0.0143889010870852</v>
+        <v>-0.006604787722623003</v>
       </c>
       <c r="D33">
-        <v>-0.08099023910941257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1013006297858219</v>
+      </c>
+      <c r="E33">
+        <v>0.04334811645986799</v>
+      </c>
+      <c r="F33">
+        <v>0.0379746321398774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07404922136255065</v>
+        <v>0.06778134940978192</v>
       </c>
       <c r="C34">
-        <v>0.01653573943999293</v>
+        <v>-0.009911267498857894</v>
       </c>
       <c r="D34">
-        <v>-0.09143970613123983</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1096558760162483</v>
+      </c>
+      <c r="E34">
+        <v>0.03436335623691312</v>
+      </c>
+      <c r="F34">
+        <v>0.03396208190149855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02301637428511676</v>
+        <v>0.02519421930874816</v>
       </c>
       <c r="C35">
-        <v>0.002653188247343855</v>
+        <v>-0.002499275239990787</v>
       </c>
       <c r="D35">
-        <v>-0.004329980539576969</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01158866123888204</v>
+      </c>
+      <c r="E35">
+        <v>0.01188034172832242</v>
+      </c>
+      <c r="F35">
+        <v>0.001182122017770964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02020834371687217</v>
+        <v>0.02760741535139994</v>
       </c>
       <c r="C36">
-        <v>0.009214726242589011</v>
+        <v>-0.006784041750486948</v>
       </c>
       <c r="D36">
-        <v>-0.02618121235311744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03999840186107075</v>
+      </c>
+      <c r="E36">
+        <v>0.01659669716754726</v>
+      </c>
+      <c r="F36">
+        <v>0.01575900763940976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0005367967384592398</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006139938428347526</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001909557542358502</v>
+      </c>
+      <c r="E37">
+        <v>-0.001346967821988585</v>
+      </c>
+      <c r="F37">
+        <v>0.0002475808953497334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007121326546537</v>
+        <v>-0.000463216957318049</v>
       </c>
       <c r="C38">
-        <v>-7.127054375973342e-05</v>
+        <v>0.0001205002001168143</v>
       </c>
       <c r="D38">
-        <v>-0.0003325076413356091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-5.247197328581056e-05</v>
+      </c>
+      <c r="E38">
+        <v>-0.0008332565343852148</v>
+      </c>
+      <c r="F38">
+        <v>0.0002462972608137748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1216806419072736</v>
+        <v>0.1040523164570126</v>
       </c>
       <c r="C39">
-        <v>0.02531551539988317</v>
+        <v>-0.01532768687668288</v>
       </c>
       <c r="D39">
-        <v>-0.1464214925028457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1550552892399323</v>
+      </c>
+      <c r="E39">
+        <v>0.05954129767205252</v>
+      </c>
+      <c r="F39">
+        <v>0.02983689858200584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03427256882281144</v>
+        <v>0.0414880682456135</v>
       </c>
       <c r="C40">
-        <v>0.009891175854697308</v>
+        <v>-0.007042296708121209</v>
       </c>
       <c r="D40">
-        <v>0.006960540866800045</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03074959014759176</v>
+      </c>
+      <c r="E40">
+        <v>0.001906935696584858</v>
+      </c>
+      <c r="F40">
+        <v>-0.01515567263511492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0251633215512804</v>
+        <v>0.02796779922174646</v>
       </c>
       <c r="C41">
-        <v>0.007532211189698542</v>
+        <v>-0.006867314786241121</v>
       </c>
       <c r="D41">
-        <v>-0.008107631666118668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01096934088687928</v>
+      </c>
+      <c r="E41">
+        <v>0.01238575291016403</v>
+      </c>
+      <c r="F41">
+        <v>-0.005770916338561952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0396324069010557</v>
+        <v>0.04075815257504228</v>
       </c>
       <c r="C43">
-        <v>0.008494673611044843</v>
+        <v>-0.007036261814190642</v>
       </c>
       <c r="D43">
-        <v>-0.00854153253260336</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01897678063923967</v>
+      </c>
+      <c r="E43">
+        <v>0.02532035237105808</v>
+      </c>
+      <c r="F43">
+        <v>-0.01214962308843531</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07998181405706653</v>
+        <v>0.07911585637478762</v>
       </c>
       <c r="C44">
-        <v>0.02787248797752528</v>
+        <v>-0.01907838399298796</v>
       </c>
       <c r="D44">
-        <v>-0.07343561141572931</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09774435201014092</v>
+      </c>
+      <c r="E44">
+        <v>0.06150175390044117</v>
+      </c>
+      <c r="F44">
+        <v>0.1559444985118927</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01872840211274126</v>
+        <v>0.02334186464402353</v>
       </c>
       <c r="C46">
-        <v>0.003989614694069754</v>
+        <v>-0.003257628874112346</v>
       </c>
       <c r="D46">
-        <v>0.001407171370094718</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01351563851021664</v>
+      </c>
+      <c r="E46">
+        <v>0.02633303027270214</v>
+      </c>
+      <c r="F46">
+        <v>-0.005856773479653099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05293217852996911</v>
+        <v>0.05261313043341224</v>
       </c>
       <c r="C47">
-        <v>0.004168634533143683</v>
+        <v>-0.003483880358731696</v>
       </c>
       <c r="D47">
-        <v>-0.004931234040690027</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01300246913881973</v>
+      </c>
+      <c r="E47">
+        <v>0.02350296460705891</v>
+      </c>
+      <c r="F47">
+        <v>-0.03170802390656877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04706438782911005</v>
+        <v>0.05025299498785621</v>
       </c>
       <c r="C48">
-        <v>0.005932627972647673</v>
+        <v>-0.002112114743784102</v>
       </c>
       <c r="D48">
-        <v>-0.0373023467233746</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05051390872361479</v>
+      </c>
+      <c r="E48">
+        <v>-0.004815412872200914</v>
+      </c>
+      <c r="F48">
+        <v>0.01009069074646592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2015682594683347</v>
+        <v>0.2001679804223717</v>
       </c>
       <c r="C49">
-        <v>0.01758126019634279</v>
+        <v>-0.01880128715784206</v>
       </c>
       <c r="D49">
-        <v>0.006123891548240539</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006799600296929338</v>
+      </c>
+      <c r="E49">
+        <v>0.03086724127676104</v>
+      </c>
+      <c r="F49">
+        <v>0.03708811673649113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05081887363573014</v>
+        <v>0.05121331295905573</v>
       </c>
       <c r="C50">
-        <v>0.01282763805735722</v>
+        <v>-0.01107515910654911</v>
       </c>
       <c r="D50">
-        <v>-0.02135816725934253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.024708315121158</v>
+      </c>
+      <c r="E50">
+        <v>0.03002673184484422</v>
+      </c>
+      <c r="F50">
+        <v>0.009718939217246644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1570852209810743</v>
+        <v>0.1482742267080192</v>
       </c>
       <c r="C52">
-        <v>0.01777018944629968</v>
+        <v>-0.01710957694014812</v>
       </c>
       <c r="D52">
-        <v>-0.06161013085898411</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04275962276389358</v>
+      </c>
+      <c r="E52">
+        <v>0.02025423768108221</v>
+      </c>
+      <c r="F52">
+        <v>0.04388720047602593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1698653714737852</v>
+        <v>0.1712849156018321</v>
       </c>
       <c r="C53">
-        <v>0.01697140451098516</v>
+        <v>-0.01968264386499998</v>
       </c>
       <c r="D53">
-        <v>-0.02886638657055365</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00519984889462191</v>
+      </c>
+      <c r="E53">
+        <v>0.02841042686286386</v>
+      </c>
+      <c r="F53">
+        <v>0.07506549303125563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02104135857644643</v>
+        <v>0.02073964345723229</v>
       </c>
       <c r="C54">
-        <v>0.01294790555393442</v>
+        <v>-0.01130826743000523</v>
       </c>
       <c r="D54">
-        <v>-0.02372557907397501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03412759586186549</v>
+      </c>
+      <c r="E54">
+        <v>0.02150267479349234</v>
+      </c>
+      <c r="F54">
+        <v>-0.004920584633477198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1172590053365881</v>
+        <v>0.1146559465071917</v>
       </c>
       <c r="C55">
-        <v>0.01568446767098948</v>
+        <v>-0.01741131796377727</v>
       </c>
       <c r="D55">
-        <v>-0.02470005284796373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007617764449387284</v>
+      </c>
+      <c r="E55">
+        <v>0.02384280058892697</v>
+      </c>
+      <c r="F55">
+        <v>0.04762730926321618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1742840528238502</v>
+        <v>0.1770725385338664</v>
       </c>
       <c r="C56">
-        <v>0.01518189536866321</v>
+        <v>-0.01758292595605087</v>
       </c>
       <c r="D56">
-        <v>-0.01110283775001214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001750698152655313</v>
+      </c>
+      <c r="E56">
+        <v>0.03367860746973309</v>
+      </c>
+      <c r="F56">
+        <v>0.05250104119868305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04284586684642528</v>
+        <v>0.04482031208440219</v>
       </c>
       <c r="C58">
-        <v>0.007142392160277022</v>
+        <v>0.0005067742911926045</v>
       </c>
       <c r="D58">
-        <v>-0.04737155399119504</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07205196182185815</v>
+      </c>
+      <c r="E58">
+        <v>0.03270259094184189</v>
+      </c>
+      <c r="F58">
+        <v>-0.03921426488379379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1684770627801782</v>
+        <v>0.1679813933230142</v>
       </c>
       <c r="C59">
-        <v>0.005585502151976709</v>
+        <v>-0.022466252797788</v>
       </c>
       <c r="D59">
-        <v>0.2200208024697269</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2168677550436659</v>
+      </c>
+      <c r="E59">
+        <v>-0.04599037125036628</v>
+      </c>
+      <c r="F59">
+        <v>-0.03581670840103438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2415423207218659</v>
+        <v>0.231897312937565</v>
       </c>
       <c r="C60">
-        <v>-0.002044358038211782</v>
+        <v>0.00235278947670701</v>
       </c>
       <c r="D60">
-        <v>-0.06509674776961229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04116288670950327</v>
+      </c>
+      <c r="E60">
+        <v>0.00918645872311875</v>
+      </c>
+      <c r="F60">
+        <v>-0.00505511601631411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09251510547771981</v>
+        <v>0.08022732789230494</v>
       </c>
       <c r="C61">
-        <v>0.01860810979414618</v>
+        <v>-0.01107762215221961</v>
       </c>
       <c r="D61">
-        <v>-0.09928481893388855</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.117832152346905</v>
+      </c>
+      <c r="E61">
+        <v>0.03929139575322381</v>
+      </c>
+      <c r="F61">
+        <v>0.01370264694265473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1716627463854823</v>
+        <v>0.1696212664577606</v>
       </c>
       <c r="C62">
-        <v>0.01856121384608286</v>
+        <v>-0.02056200972430143</v>
       </c>
       <c r="D62">
-        <v>-0.01477700988481872</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005799864587451214</v>
+      </c>
+      <c r="E62">
+        <v>0.03378337162148695</v>
+      </c>
+      <c r="F62">
+        <v>0.03610339288177485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04522021031575128</v>
+        <v>0.04571137316734411</v>
       </c>
       <c r="C63">
-        <v>0.006711512791496144</v>
+        <v>-0.00159489481439325</v>
       </c>
       <c r="D63">
-        <v>-0.04088267846630793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05921487218336128</v>
+      </c>
+      <c r="E63">
+        <v>0.02330280614725964</v>
+      </c>
+      <c r="F63">
+        <v>0.003525590339605919</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1032190375005078</v>
+        <v>0.1103509437032022</v>
       </c>
       <c r="C64">
-        <v>0.01488361707692951</v>
+        <v>-0.01129225108715657</v>
       </c>
       <c r="D64">
-        <v>-0.02041136531342977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04308587766673844</v>
+      </c>
+      <c r="E64">
+        <v>0.0220717650387744</v>
+      </c>
+      <c r="F64">
+        <v>0.02541664174713215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1364441376769846</v>
+        <v>0.1501096242278244</v>
       </c>
       <c r="C65">
-        <v>0.03082693267250636</v>
+        <v>-0.03389126423712091</v>
       </c>
       <c r="D65">
-        <v>0.04083608018705582</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04365879115528087</v>
+      </c>
+      <c r="E65">
+        <v>0.006331430342436667</v>
+      </c>
+      <c r="F65">
+        <v>0.03853528368936006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1476315827696596</v>
+        <v>0.1236480808263269</v>
       </c>
       <c r="C66">
-        <v>0.02202983062690569</v>
+        <v>-0.01324361590890699</v>
       </c>
       <c r="D66">
-        <v>-0.1276257736174166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1434115481256542</v>
+      </c>
+      <c r="E66">
+        <v>0.06549419495249817</v>
+      </c>
+      <c r="F66">
+        <v>0.03437571514199453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06354596278108787</v>
+        <v>0.05758425441840509</v>
       </c>
       <c r="C67">
-        <v>0.005803580044198409</v>
+        <v>-0.002780296581723014</v>
       </c>
       <c r="D67">
-        <v>-0.05944804766129936</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05596563189302947</v>
+      </c>
+      <c r="E67">
+        <v>0.01645324141707614</v>
+      </c>
+      <c r="F67">
+        <v>-0.030900484480757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1101910083837536</v>
+        <v>0.1164411228867938</v>
       </c>
       <c r="C68">
-        <v>0.01379659488541921</v>
+        <v>-0.03295811776641493</v>
       </c>
       <c r="D68">
-        <v>0.2669811583243716</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2609188097911544</v>
+      </c>
+      <c r="E68">
+        <v>-0.0871534018265053</v>
+      </c>
+      <c r="F68">
+        <v>0.003121662785765281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04110970598621821</v>
+        <v>0.03920696483075701</v>
       </c>
       <c r="C69">
-        <v>0.0008004807349989642</v>
+        <v>-0.001113984314728807</v>
       </c>
       <c r="D69">
-        <v>-0.01124508190502051</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008649859988130762</v>
+      </c>
+      <c r="E69">
+        <v>0.02408566218671507</v>
+      </c>
+      <c r="F69">
+        <v>0.0007706249277080068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0646661351930178</v>
+        <v>0.06682454634243472</v>
       </c>
       <c r="C70">
-        <v>-0.02378073758540868</v>
+        <v>0.02747026426903752</v>
       </c>
       <c r="D70">
-        <v>0.02421940064087799</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02356234619976549</v>
+      </c>
+      <c r="E70">
+        <v>-0.03312893308769119</v>
+      </c>
+      <c r="F70">
+        <v>-0.1853418694341984</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1250209174898689</v>
+        <v>0.1363957239762485</v>
       </c>
       <c r="C71">
-        <v>0.01756775816657973</v>
+        <v>-0.03735738472914105</v>
       </c>
       <c r="D71">
-        <v>0.2871080233925846</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723339889429065</v>
+      </c>
+      <c r="E71">
+        <v>-0.0975706459828672</v>
+      </c>
+      <c r="F71">
+        <v>0.008893691462029429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1367734687756045</v>
+        <v>0.142698918666919</v>
       </c>
       <c r="C72">
-        <v>0.02563097421077558</v>
+        <v>-0.02719731170236636</v>
       </c>
       <c r="D72">
-        <v>-0.006531590484843242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003490970257220958</v>
+      </c>
+      <c r="E72">
+        <v>0.03586074054766442</v>
+      </c>
+      <c r="F72">
+        <v>0.03232836942707495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1987459609817626</v>
+        <v>0.204128326911795</v>
       </c>
       <c r="C73">
-        <v>0.01383463244965203</v>
+        <v>-0.01279174807889389</v>
       </c>
       <c r="D73">
-        <v>-0.0244084106064333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01743509572825133</v>
+      </c>
+      <c r="E73">
+        <v>0.06352777611909788</v>
+      </c>
+      <c r="F73">
+        <v>0.03761828494136062</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09291281438821702</v>
+        <v>0.09488101098354405</v>
       </c>
       <c r="C74">
-        <v>0.01220093842857918</v>
+        <v>-0.01334840772011871</v>
       </c>
       <c r="D74">
-        <v>-0.03441458380744401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01684774300615462</v>
+      </c>
+      <c r="E74">
+        <v>0.04406158226319822</v>
+      </c>
+      <c r="F74">
+        <v>0.05837012217807859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1354757290185196</v>
+        <v>0.1275551950237789</v>
       </c>
       <c r="C75">
-        <v>0.027778286189264</v>
+        <v>-0.02820835810326296</v>
       </c>
       <c r="D75">
-        <v>-0.04544516861040019</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03057076046794313</v>
+      </c>
+      <c r="E75">
+        <v>0.0580449531769139</v>
+      </c>
+      <c r="F75">
+        <v>0.02304033718081239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07190380665678756</v>
+        <v>0.08889808478695815</v>
       </c>
       <c r="C77">
-        <v>0.01664365812397949</v>
+        <v>-0.007941308693017384</v>
       </c>
       <c r="D77">
-        <v>-0.09246801773593238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1124782623896828</v>
+      </c>
+      <c r="E77">
+        <v>0.04006002274556919</v>
+      </c>
+      <c r="F77">
+        <v>0.03690890689569724</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1068732448712467</v>
+        <v>0.101252911625987</v>
       </c>
       <c r="C78">
-        <v>0.04785793762634958</v>
+        <v>-0.03961983402723861</v>
       </c>
       <c r="D78">
-        <v>-0.1000720411817083</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.113047190700106</v>
+      </c>
+      <c r="E78">
+        <v>0.07515641768448379</v>
+      </c>
+      <c r="F78">
+        <v>0.04939762928903336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1646827539014592</v>
+        <v>0.163613282102729</v>
       </c>
       <c r="C79">
-        <v>0.02199728083496518</v>
+        <v>-0.02291225042422471</v>
       </c>
       <c r="D79">
-        <v>-0.01784994677451223</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01457613658716653</v>
+      </c>
+      <c r="E79">
+        <v>0.0460345822955581</v>
+      </c>
+      <c r="F79">
+        <v>0.01286703914135657</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08994397666531663</v>
+        <v>0.08214844456230329</v>
       </c>
       <c r="C80">
-        <v>0.001561201051015731</v>
+        <v>0.001070671157527893</v>
       </c>
       <c r="D80">
-        <v>-0.05339557860071703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0564703339507673</v>
+      </c>
+      <c r="E80">
+        <v>0.03592813115348639</v>
+      </c>
+      <c r="F80">
+        <v>-0.02163805681083807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.121810018726685</v>
+        <v>0.1186916699638317</v>
       </c>
       <c r="C81">
-        <v>0.02968417135028928</v>
+        <v>-0.03182223097781445</v>
       </c>
       <c r="D81">
-        <v>-0.0477638543450572</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01558990445579767</v>
+      </c>
+      <c r="E81">
+        <v>0.05691728584061406</v>
+      </c>
+      <c r="F81">
+        <v>0.01874657173865074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1643266386548512</v>
+        <v>0.1653000997475129</v>
       </c>
       <c r="C82">
-        <v>0.0218204196712817</v>
+        <v>-0.02482854690509089</v>
       </c>
       <c r="D82">
-        <v>-0.03365983467338735</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004284775990371636</v>
+      </c>
+      <c r="E82">
+        <v>0.02631600263984269</v>
+      </c>
+      <c r="F82">
+        <v>0.08187494758354281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0713227781367594</v>
+        <v>0.05844915407216859</v>
       </c>
       <c r="C83">
-        <v>0.006141746548642096</v>
+        <v>-0.002636471766272581</v>
       </c>
       <c r="D83">
-        <v>-0.03156493916004847</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05134114969931254</v>
+      </c>
+      <c r="E83">
+        <v>0.003415158242439589</v>
+      </c>
+      <c r="F83">
+        <v>-0.03028681252599947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.067161865872683</v>
+        <v>0.05963916459460087</v>
       </c>
       <c r="C84">
-        <v>0.01547363991793885</v>
+        <v>-0.0112106186485727</v>
       </c>
       <c r="D84">
-        <v>-0.05555205009218091</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06306451384141126</v>
+      </c>
+      <c r="E84">
+        <v>0.007144672188141414</v>
+      </c>
+      <c r="F84">
+        <v>0.005610080207879195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.138326399853182</v>
+        <v>0.1355445318568527</v>
       </c>
       <c r="C85">
-        <v>0.02691799817645203</v>
+        <v>-0.02818481368432423</v>
       </c>
       <c r="D85">
-        <v>-0.0236548411198222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009468553512897791</v>
+      </c>
+      <c r="E85">
+        <v>0.03619038974337361</v>
+      </c>
+      <c r="F85">
+        <v>0.04826261342843876</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09988396333986603</v>
+        <v>0.09498340847287859</v>
       </c>
       <c r="C86">
-        <v>-0.001617858081728571</v>
+        <v>0.005467240459720724</v>
       </c>
       <c r="D86">
-        <v>0.0325625062001299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0422863124027644</v>
+      </c>
+      <c r="E86">
+        <v>0.230865610557978</v>
+      </c>
+      <c r="F86">
+        <v>-0.9036280902102355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09944622407421973</v>
+        <v>0.09409193347989192</v>
       </c>
       <c r="C87">
-        <v>0.02946207308060174</v>
+        <v>-0.01906651649377418</v>
       </c>
       <c r="D87">
-        <v>-0.05709954621620411</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.093621130555829</v>
+      </c>
+      <c r="E87">
+        <v>-0.05472397793790613</v>
+      </c>
+      <c r="F87">
+        <v>0.04643490271817086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05787484840185006</v>
+        <v>0.06067331421618486</v>
       </c>
       <c r="C88">
-        <v>0.006226892739163096</v>
+        <v>-0.002143936322186251</v>
       </c>
       <c r="D88">
-        <v>-0.04681754381118469</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04984457737866667</v>
+      </c>
+      <c r="E88">
+        <v>0.02449555337989351</v>
+      </c>
+      <c r="F88">
+        <v>0.01402596165418259</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1219247571350615</v>
+        <v>0.1300320285474026</v>
       </c>
       <c r="C89">
-        <v>-0.003247779035617062</v>
+        <v>-0.01368256441918041</v>
       </c>
       <c r="D89">
-        <v>0.2751357567654248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.246023396752623</v>
+      </c>
+      <c r="E89">
+        <v>-0.08874832064826933</v>
+      </c>
+      <c r="F89">
+        <v>-0.009551803859027836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1367940559917359</v>
+        <v>0.1512933095266423</v>
       </c>
       <c r="C90">
-        <v>0.01484322110705456</v>
+        <v>-0.03417537457579562</v>
       </c>
       <c r="D90">
-        <v>0.2873753439421183</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2710794632097393</v>
+      </c>
+      <c r="E90">
+        <v>-0.1137572338144054</v>
+      </c>
+      <c r="F90">
+        <v>-0.00820798134142765</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1184951569354991</v>
+        <v>0.1211630383880754</v>
       </c>
       <c r="C91">
-        <v>0.01687351657714844</v>
+        <v>-0.01986569568685408</v>
       </c>
       <c r="D91">
-        <v>-0.003079943298026839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01503400670647929</v>
+      </c>
+      <c r="E91">
+        <v>0.0555259719947835</v>
+      </c>
+      <c r="F91">
+        <v>0.0001774199218993675</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.147491319627924</v>
+        <v>0.1480260979192188</v>
       </c>
       <c r="C92">
-        <v>0.00307944609021767</v>
+        <v>-0.02484687407423362</v>
       </c>
       <c r="D92">
-        <v>0.3109617490528017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.291222119863161</v>
+      </c>
+      <c r="E92">
+        <v>-0.1013388426857569</v>
+      </c>
+      <c r="F92">
+        <v>-0.01291348519844771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1405061409474337</v>
+        <v>0.151324598246846</v>
       </c>
       <c r="C93">
-        <v>0.01023738112770047</v>
+        <v>-0.02919763032542917</v>
       </c>
       <c r="D93">
-        <v>0.2710165982155437</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2672632798829596</v>
+      </c>
+      <c r="E93">
+        <v>-0.07858610369727174</v>
+      </c>
+      <c r="F93">
+        <v>0.002790010470979921</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1335520885238105</v>
+        <v>0.128189194812591</v>
       </c>
       <c r="C94">
-        <v>0.02506881275489063</v>
+        <v>-0.02451153057085809</v>
       </c>
       <c r="D94">
-        <v>-0.06088518995963933</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04197947569325149</v>
+      </c>
+      <c r="E94">
+        <v>0.05716075147511354</v>
+      </c>
+      <c r="F94">
+        <v>0.03653479325334343</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1242460548451043</v>
+        <v>0.1262404295796155</v>
       </c>
       <c r="C95">
-        <v>0.01096692159891346</v>
+        <v>-0.003052118829713608</v>
       </c>
       <c r="D95">
-        <v>-0.06766208472790958</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09444989142419961</v>
+      </c>
+      <c r="E95">
+        <v>0.04924285386784526</v>
+      </c>
+      <c r="F95">
+        <v>-0.006811017108327621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1052090933615625</v>
+        <v>0.1088993890585238</v>
       </c>
       <c r="C96">
-        <v>-0.9889201363463597</v>
+        <v>0.9871037079763606</v>
       </c>
       <c r="D96">
-        <v>-0.01526717289931379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05185030256807747</v>
+      </c>
+      <c r="E96">
+        <v>0.05297563750513219</v>
+      </c>
+      <c r="F96">
+        <v>0.04264795695336026</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1893748745658217</v>
+        <v>0.1907260841768095</v>
       </c>
       <c r="C97">
-        <v>-0.00859568157278838</v>
+        <v>0.006978979602640712</v>
       </c>
       <c r="D97">
-        <v>0.03140942174544878</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02052170143267476</v>
+      </c>
+      <c r="E97">
+        <v>0.02103000330185398</v>
+      </c>
+      <c r="F97">
+        <v>-0.0957867487731216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1938643693138139</v>
+        <v>0.2057614351566567</v>
       </c>
       <c r="C98">
-        <v>0.009350679958045102</v>
+        <v>-0.006958048360039836</v>
       </c>
       <c r="D98">
-        <v>-1.143360043089889e-06</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01299337432552932</v>
+      </c>
+      <c r="E98">
+        <v>-0.07745800062185888</v>
+      </c>
+      <c r="F98">
+        <v>-0.09291246320156905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0551969976674806</v>
+        <v>0.05495868214511583</v>
       </c>
       <c r="C99">
-        <v>-0.002186604940431818</v>
+        <v>0.004531114969372549</v>
       </c>
       <c r="D99">
-        <v>-0.02197642170284655</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03967001501824632</v>
+      </c>
+      <c r="E99">
+        <v>0.02241992300232461</v>
+      </c>
+      <c r="F99">
+        <v>0.003114126437001947</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1320261923806655</v>
+        <v>0.127693960838086</v>
       </c>
       <c r="C100">
-        <v>-0.02869361205954773</v>
+        <v>0.05367173695513761</v>
       </c>
       <c r="D100">
-        <v>-0.3910085711996258</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3467559969480831</v>
+      </c>
+      <c r="E100">
+        <v>-0.8853679333761914</v>
+      </c>
+      <c r="F100">
+        <v>-0.1592802171820544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02610696730627388</v>
+        <v>0.02866201755161524</v>
       </c>
       <c r="C101">
-        <v>0.01016940055013535</v>
+        <v>-0.008711719339476101</v>
       </c>
       <c r="D101">
-        <v>-0.01695777608059763</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03080500999954065</v>
+      </c>
+      <c r="E101">
+        <v>0.0132940927618472</v>
+      </c>
+      <c r="F101">
+        <v>-0.01438538673671291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
